--- a/FeasibilityResults-InitiallyWeakened-ContinuousVars.xlsx
+++ b/FeasibilityResults-InitiallyWeakened-ContinuousVars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\MEGAsync\Zachary\Self\Programs\Python\NutritionResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D423DBA1-4C85-45D3-ADF8-4F9E83BC81D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92760690-9D7C-441B-9BE5-D75BBF3422BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="405" windowWidth="7575" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="9210" windowWidth="12150" windowHeight="20595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>Sugars</t>
   </si>
@@ -34,34 +34,31 @@
     <t>Arby's</t>
   </si>
   <si>
+    <t>Feasible</t>
+  </si>
+  <si>
+    <t>Baskin-Robbins</t>
+  </si>
+  <si>
+    <t>Blimpie</t>
+  </si>
+  <si>
+    <t>Boston Market</t>
+  </si>
+  <si>
+    <t>Buffalo Wild Wings</t>
+  </si>
+  <si>
+    <t>Burger King</t>
+  </si>
+  <si>
+    <t>Carl's Jr</t>
+  </si>
+  <si>
     <t>Relaxed</t>
   </si>
   <si>
-    <t>Baskin-Robbins</t>
-  </si>
-  <si>
-    <t>Infeasible</t>
-  </si>
-  <si>
-    <t>Blimpie</t>
-  </si>
-  <si>
-    <t>Boston Market</t>
-  </si>
-  <si>
-    <t>Buffalo Wild Wings</t>
-  </si>
-  <si>
-    <t>Burger King</t>
-  </si>
-  <si>
-    <t>Carl's Jr</t>
-  </si>
-  <si>
     <t>Chipotle</t>
-  </si>
-  <si>
-    <t>Feasible</t>
   </si>
   <si>
     <t>Culvers</t>
@@ -549,13 +546,13 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -600,7 +597,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -614,10 +611,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -628,7 +625,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -642,7 +639,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -656,16 +653,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,21 +670,21 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -698,7 +695,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -726,7 +723,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -754,10 +751,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -768,49 +765,49 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -824,21 +821,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -852,7 +849,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -866,7 +863,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -880,24 +877,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -908,10 +905,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -922,38 +919,38 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -978,7 +975,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -992,27 +989,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1020,10 +1017,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -1048,10 +1045,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1062,10 +1059,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1076,10 +1073,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1090,7 +1087,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1104,13 +1101,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
